--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2E4E2-B0DB-423C-9430-8EB39BA358D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0285706-DD4B-46B1-8370-BA36715456F6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Weapon Customization</t>
   </si>
@@ -168,6 +168,24 @@
   </si>
   <si>
     <t>Crouch</t>
+  </si>
+  <si>
+    <t>2 New Sets of Armour</t>
+  </si>
+  <si>
+    <t>Light Machine Gun</t>
+  </si>
+  <si>
+    <t>Sniper Rifle</t>
+  </si>
+  <si>
+    <t>Sidearm</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>Lava hound</t>
   </si>
 </sst>
 </file>
@@ -225,7 +243,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -366,7 +402,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7D89E84-46C2-4809-B7E2-12FEF9EC639E}" name="Table1" displayName="Table1" ref="C5:F12" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7D89E84-46C2-4809-B7E2-12FEF9EC639E}" name="Table1" displayName="Table1" ref="C5:F12" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="C5:F12" xr:uid="{047B73C0-D5C4-42ED-ACEC-1158B2377E0D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BF559A51-623C-4BD0-9BD4-F0F02B5BFDE2}" name="Weapon Customization"/>
@@ -379,7 +415,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89F7538B-637F-4004-9059-C8B4F291C1B2}" name="Table2" displayName="Table2" ref="H5:K11" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89F7538B-637F-4004-9059-C8B4F291C1B2}" name="Table2" displayName="Table2" ref="H5:K11" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="H5:K11" xr:uid="{2E969C31-CF40-4213-822E-48EC08209CD5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{56337532-7222-4E3B-802C-811CF85FD428}" name="AI"/>
@@ -392,7 +428,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA27063-98E1-4A38-A276-048E4BC35033}" name="Table3" displayName="Table3" ref="C15:F20" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA27063-98E1-4A38-A276-048E4BC35033}" name="Table3" displayName="Table3" ref="C15:F20" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="C15:F20" xr:uid="{B4CD116A-2747-4A8E-A6BF-E83A62A6D458}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5B5B62A9-99CC-4525-AFF9-99358C5C682C}" name="Companion"/>
@@ -405,7 +441,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1A6CEFD-1138-4E38-9EF7-FB5D16E2BF60}" name="Table4" displayName="Table4" ref="H15:K20" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1A6CEFD-1138-4E38-9EF7-FB5D16E2BF60}" name="Table4" displayName="Table4" ref="H15:K20" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="H15:K20" xr:uid="{C74D4457-CD35-495A-85B5-EE93E3A504CB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7CD12DC9-5083-4E58-B60F-131DE37FC30A}" name="Vehicle"/>
@@ -418,7 +454,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C9BD4CE-FC8A-45E1-84B9-71D290E32C9C}" name="Table5" displayName="Table5" ref="C23:F28" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C9BD4CE-FC8A-45E1-84B9-71D290E32C9C}" name="Table5" displayName="Table5" ref="C23:F28" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="C23:F28" xr:uid="{75EF3998-AA5E-4595-96E7-80265861975F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{60C3BE13-C8E6-4644-843B-181CF132C1BA}" name="Abilities"/>
@@ -431,8 +467,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4C4740F1-8136-4F93-9A9A-833316F07E96}" name="Table7" displayName="Table7" ref="H23:K27" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="H23:K27" xr:uid="{DBC3B708-E215-4315-ABE2-168F659D0273}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4C4740F1-8136-4F93-9A9A-833316F07E96}" name="Table7" displayName="Table7" ref="H23:K28" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="H23:K28" xr:uid="{DBC3B708-E215-4315-ABE2-168F659D0273}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2A9AC2AA-9180-40B9-A64B-95D7D5948A82}" name="Misc"/>
     <tableColumn id="2" xr3:uid="{11B192F9-9506-4C84-ABCA-980F2CB30C84}" name="Know How To"/>
@@ -444,13 +480,26 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C31:F35" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C31:F35" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="C31:F35" xr:uid="{E6395B0B-D4F3-4B33-9CD9-EA7043E99373}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E146A790-EE3F-4945-ADC7-D79F80BA39F3}" name="Player Controler"/>
     <tableColumn id="2" xr3:uid="{DA7DABBA-92FE-420A-9935-43B5A2113711}" name="Know How To"/>
     <tableColumn id="3" xr3:uid="{BD372636-BE8D-4189-A2C3-A6FD9749C065}" name="Currently Doing"/>
     <tableColumn id="4" xr3:uid="{745FAC54-A0B7-4B59-A105-7206CE1F443E}" name="Done"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85736504-C8B5-4E95-A007-6F3F5D14EF50}" name="Table6" displayName="Table6" ref="H31:K36" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="H31:K36" xr:uid="{2EBA55FA-37CE-425B-8D42-08A2FAC0F309}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0718A3E8-BAEE-477D-86C4-F6909911255A}" name="Weapons"/>
+    <tableColumn id="2" xr3:uid="{F3199CEB-AC32-4C97-B72C-267A5C13FDC1}" name="Know How To"/>
+    <tableColumn id="3" xr3:uid="{7E131167-8EFC-47F6-95C1-A4E267D19F75}" name="Currently Doing"/>
+    <tableColumn id="4" xr3:uid="{72F1976F-FE14-40F0-B21E-DBF5D813960D}" name="Done"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -753,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
-  <dimension ref="C5:K35"/>
+  <dimension ref="C5:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,6 +1069,11 @@
         <v>35</v>
       </c>
       <c r="D28" s="2"/>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
@@ -1034,31 +1088,70 @@
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>45</v>
       </c>
+      <c r="D35" s="2"/>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="7">
+  <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1066,6 +1159,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0285706-DD4B-46B1-8370-BA36715456F6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CF678-5F1C-428C-AC85-28B2979A7F19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Weapon Customization</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Player Controler</t>
   </si>
   <si>
-    <t>Double Jump</t>
-  </si>
-  <si>
     <t>Dash</t>
   </si>
   <si>
@@ -186,13 +183,73 @@
   </si>
   <si>
     <t>Lava hound</t>
+  </si>
+  <si>
+    <t>Armour For FPS Arms</t>
+  </si>
+  <si>
+    <t>New Double Jump</t>
+  </si>
+  <si>
+    <t>Looting</t>
+  </si>
+  <si>
+    <t>Random Drop</t>
+  </si>
+  <si>
+    <t>Dismantle Loot</t>
+  </si>
+  <si>
+    <t>Improve Droping Physics</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Finished With Bugs</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>IK</t>
+  </si>
+  <si>
+    <t>Mission Rewards</t>
+  </si>
+  <si>
+    <t>Planetary Materials</t>
+  </si>
+  <si>
+    <t>Collect Multiple Itms at Once</t>
+  </si>
+  <si>
+    <t>Foot IK</t>
+  </si>
+  <si>
+    <t>Body IK</t>
+  </si>
+  <si>
+    <t>Enemy IK</t>
+  </si>
+  <si>
+    <t>Companion IK</t>
+  </si>
+  <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>Lean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +265,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +285,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -231,19 +318,248 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -297,6 +613,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -402,7 +734,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7D89E84-46C2-4809-B7E2-12FEF9EC639E}" name="Table1" displayName="Table1" ref="C5:F12" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7D89E84-46C2-4809-B7E2-12FEF9EC639E}" name="Table1" displayName="Table1" ref="C5:F12" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="C5:F12" xr:uid="{047B73C0-D5C4-42ED-ACEC-1158B2377E0D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BF559A51-623C-4BD0-9BD4-F0F02B5BFDE2}" name="Weapon Customization"/>
@@ -414,8 +746,34 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6C93E040-1EB4-4D09-8018-0F69FC13F4AA}" name="Table11" displayName="Table11" ref="M5:P11" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="M5:P11" xr:uid="{0E6C23D4-EDC3-4E5C-B637-66C1A94FEF5A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{294C2FBC-108A-4A79-9CFA-291618427F38}" name="Looting"/>
+    <tableColumn id="2" xr3:uid="{B8DB1CA6-FEF1-4422-816D-AD3545BA0DDD}" name="Know How To"/>
+    <tableColumn id="3" xr3:uid="{75B53133-4CD5-4878-AFF0-C35449E89F36}" name="Currently Doing"/>
+    <tableColumn id="4" xr3:uid="{279341EE-A082-4419-B989-659027F75A03}" name="Done"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{87C33A22-01CF-4060-9F41-07C346233261}" name="Table12" displayName="Table12" ref="M15:P19" totalsRowShown="0">
+  <autoFilter ref="M15:P19" xr:uid="{8E899151-B673-4134-A666-98AC07542539}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{49A2F5F0-2B94-4683-9C6B-E140B241CCA7}" name="IK"/>
+    <tableColumn id="2" xr3:uid="{0E2C144F-E0D8-487B-8E5B-D31B9A1EBEBC}" name="Know How To" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BE2B053C-9DD5-444D-A092-AE16313891AE}" name="Currently Doing" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A0D29A76-3819-419E-966E-413BC6E41F1E}" name="Done" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89F7538B-637F-4004-9059-C8B4F291C1B2}" name="Table2" displayName="Table2" ref="H5:K11" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89F7538B-637F-4004-9059-C8B4F291C1B2}" name="Table2" displayName="Table2" ref="H5:K11" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="H5:K11" xr:uid="{2E969C31-CF40-4213-822E-48EC08209CD5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{56337532-7222-4E3B-802C-811CF85FD428}" name="AI"/>
@@ -428,7 +786,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA27063-98E1-4A38-A276-048E4BC35033}" name="Table3" displayName="Table3" ref="C15:F20" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA27063-98E1-4A38-A276-048E4BC35033}" name="Table3" displayName="Table3" ref="C15:F20" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="C15:F20" xr:uid="{B4CD116A-2747-4A8E-A6BF-E83A62A6D458}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5B5B62A9-99CC-4525-AFF9-99358C5C682C}" name="Companion"/>
@@ -441,7 +799,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1A6CEFD-1138-4E38-9EF7-FB5D16E2BF60}" name="Table4" displayName="Table4" ref="H15:K20" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1A6CEFD-1138-4E38-9EF7-FB5D16E2BF60}" name="Table4" displayName="Table4" ref="H15:K20" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="H15:K20" xr:uid="{C74D4457-CD35-495A-85B5-EE93E3A504CB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7CD12DC9-5083-4E58-B60F-131DE37FC30A}" name="Vehicle"/>
@@ -454,21 +812,21 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C9BD4CE-FC8A-45E1-84B9-71D290E32C9C}" name="Table5" displayName="Table5" ref="C23:F28" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C9BD4CE-FC8A-45E1-84B9-71D290E32C9C}" name="Table5" displayName="Table5" ref="C23:F28" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="C23:F28" xr:uid="{75EF3998-AA5E-4595-96E7-80265861975F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{60C3BE13-C8E6-4644-843B-181CF132C1BA}" name="Abilities"/>
     <tableColumn id="2" xr3:uid="{3F4851D4-8411-4094-8564-3D5DF15C6B3F}" name="Know How To"/>
-    <tableColumn id="3" xr3:uid="{5603E878-CCE1-4102-A0F7-BAC7AE4E8ED4}" name="Currently Doing"/>
-    <tableColumn id="4" xr3:uid="{1A9C1F0A-8F49-4023-B665-F63FBA1EE78E}" name="Done"/>
+    <tableColumn id="3" xr3:uid="{5603E878-CCE1-4102-A0F7-BAC7AE4E8ED4}" name="Currently Doing" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1A9C1F0A-8F49-4023-B665-F63FBA1EE78E}" name="Done" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4C4740F1-8136-4F93-9A9A-833316F07E96}" name="Table7" displayName="Table7" ref="H23:K28" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="H23:K28" xr:uid="{DBC3B708-E215-4315-ABE2-168F659D0273}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4C4740F1-8136-4F93-9A9A-833316F07E96}" name="Table7" displayName="Table7" ref="H23:K29" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="H23:K29" xr:uid="{DBC3B708-E215-4315-ABE2-168F659D0273}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2A9AC2AA-9180-40B9-A64B-95D7D5948A82}" name="Misc"/>
     <tableColumn id="2" xr3:uid="{11B192F9-9506-4C84-ABCA-980F2CB30C84}" name="Know How To"/>
@@ -480,8 +838,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C31:F35" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="C31:F35" xr:uid="{E6395B0B-D4F3-4B33-9CD9-EA7043E99373}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C32:F37" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="C32:F37" xr:uid="{E6395B0B-D4F3-4B33-9CD9-EA7043E99373}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E146A790-EE3F-4945-ADC7-D79F80BA39F3}" name="Player Controler"/>
     <tableColumn id="2" xr3:uid="{DA7DABBA-92FE-420A-9935-43B5A2113711}" name="Know How To"/>
@@ -493,13 +851,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85736504-C8B5-4E95-A007-6F3F5D14EF50}" name="Table6" displayName="Table6" ref="H31:K36" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="H31:K36" xr:uid="{2EBA55FA-37CE-425B-8D42-08A2FAC0F309}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85736504-C8B5-4E95-A007-6F3F5D14EF50}" name="Table6" displayName="Table6" ref="H32:K38" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="H32:K38" xr:uid="{2EBA55FA-37CE-425B-8D42-08A2FAC0F309}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0718A3E8-BAEE-477D-86C4-F6909911255A}" name="Weapons"/>
     <tableColumn id="2" xr3:uid="{F3199CEB-AC32-4C97-B72C-267A5C13FDC1}" name="Know How To"/>
     <tableColumn id="3" xr3:uid="{7E131167-8EFC-47F6-95C1-A4E267D19F75}" name="Currently Doing"/>
-    <tableColumn id="4" xr3:uid="{72F1976F-FE14-40F0-B21E-DBF5D813960D}" name="Done"/>
+    <tableColumn id="4" xr3:uid="{72F1976F-FE14-40F0-B21E-DBF5D813960D}" name="Done" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C9269E8A-CEE7-49FB-9093-763EF2F43693}" name="Table10" displayName="Table10" ref="A3:A6" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A3:A6" xr:uid="{4D52DC02-5304-40D3-98EE-FBDA93B4C8A2}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8BE3EF3A-1169-48A1-816D-933E40F72399}" name="Key"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -802,14 +1170,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
-  <dimension ref="C5:K36"/>
+  <dimension ref="A3:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
@@ -818,9 +1187,26 @@
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,8 +1231,23 @@
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -859,65 +1260,122 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="M7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="M9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="H10" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="H11" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="M11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
@@ -942,8 +1400,20 @@
       <c r="K15" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -954,51 +1424,90 @@
         <v>29</v>
       </c>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="H17" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+      <c r="M17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="H18" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="5"/>
+      <c r="M18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
       <c r="H19" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="M19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="H20" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="2"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1024,134 +1533,192 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="H24" t="s">
         <v>37</v>
       </c>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="H25" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="H26" t="s">
         <v>39</v>
       </c>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="H27" t="s">
         <v>40</v>
       </c>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="H32" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="H34" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="I34" s="2"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>43</v>
       </c>
-      <c r="H33" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="H35" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>44</v>
       </c>
-      <c r="H34" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="H36" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="H35" t="s">
+      <c r="I36" s="2"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="H37" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="11">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1160,6 +1727,9 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CF678-5F1C-428C-AC85-28B2979A7F19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145D510-4230-4BCA-B6A3-0FE86A4C995A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>Weapon Customization</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Lean</t>
+  </si>
+  <si>
+    <t>Researched</t>
   </si>
 </sst>
 </file>
@@ -738,7 +741,7 @@
   <autoFilter ref="C5:F12" xr:uid="{047B73C0-D5C4-42ED-ACEC-1158B2377E0D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BF559A51-623C-4BD0-9BD4-F0F02B5BFDE2}" name="Weapon Customization"/>
-    <tableColumn id="2" xr3:uid="{29E7D17D-C376-41CC-8E23-F5CBAAE7A336}" name="Know How To"/>
+    <tableColumn id="2" xr3:uid="{29E7D17D-C376-41CC-8E23-F5CBAAE7A336}" name="Researched"/>
     <tableColumn id="3" xr3:uid="{745018F3-9510-4519-9460-51D9EA97A239}" name="Currently Doing"/>
     <tableColumn id="4" xr3:uid="{87E5EA2D-401A-47F7-8313-9CA9034D5B65}" name="Done"/>
   </tableColumns>
@@ -1172,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:F37"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145D510-4230-4BCA-B6A3-0FE86A4C995A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD239D4-1627-4E3D-9C49-429F66591B94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>Weapon Customization</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Random Selector</t>
   </si>
   <si>
-    <t>UI</t>
-  </si>
-  <si>
     <t>Unlocks</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Attack</t>
   </si>
   <si>
-    <t xml:space="preserve">UI </t>
-  </si>
-  <si>
     <t>Vehicle</t>
   </si>
   <si>
@@ -233,19 +227,43 @@
     <t>Body IK</t>
   </si>
   <si>
-    <t>Enemy IK</t>
-  </si>
-  <si>
-    <t>Companion IK</t>
-  </si>
-  <si>
     <t>RPG</t>
   </si>
   <si>
     <t>Lean</t>
   </si>
   <si>
-    <t>Researched</t>
+    <t>Enemy Foot IK</t>
+  </si>
+  <si>
+    <t>Companion Foot IK</t>
+  </si>
+  <si>
+    <t>Enemy Body IK</t>
+  </si>
+  <si>
+    <t>Dynamic Weapon Crosshairs</t>
+  </si>
+  <si>
+    <t>Kill Markers</t>
+  </si>
+  <si>
+    <t>Enemy Health Bar</t>
+  </si>
+  <si>
+    <t>HUD</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Vault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI </t>
+  </si>
+  <si>
+    <t>3D Interactable Item At Center</t>
   </si>
 </sst>
 </file>
@@ -737,11 +755,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7D89E84-46C2-4809-B7E2-12FEF9EC639E}" name="Table1" displayName="Table1" ref="C5:F12" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="C5:F12" xr:uid="{047B73C0-D5C4-42ED-ACEC-1158B2377E0D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7D89E84-46C2-4809-B7E2-12FEF9EC639E}" name="Table1" displayName="Table1" ref="C5:F13" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="C5:F13" xr:uid="{047B73C0-D5C4-42ED-ACEC-1158B2377E0D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BF559A51-623C-4BD0-9BD4-F0F02B5BFDE2}" name="Weapon Customization"/>
-    <tableColumn id="2" xr3:uid="{29E7D17D-C376-41CC-8E23-F5CBAAE7A336}" name="Researched"/>
+    <tableColumn id="2" xr3:uid="{29E7D17D-C376-41CC-8E23-F5CBAAE7A336}" name="Know How To"/>
     <tableColumn id="3" xr3:uid="{745018F3-9510-4519-9460-51D9EA97A239}" name="Currently Doing"/>
     <tableColumn id="4" xr3:uid="{87E5EA2D-401A-47F7-8313-9CA9034D5B65}" name="Done"/>
   </tableColumns>
@@ -763,8 +781,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{87C33A22-01CF-4060-9F41-07C346233261}" name="Table12" displayName="Table12" ref="M15:P19" totalsRowShown="0">
-  <autoFilter ref="M15:P19" xr:uid="{8E899151-B673-4134-A666-98AC07542539}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{87C33A22-01CF-4060-9F41-07C346233261}" name="Table12" displayName="Table12" ref="M15:P20" totalsRowShown="0">
+  <autoFilter ref="M15:P20" xr:uid="{8E899151-B673-4134-A666-98AC07542539}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{49A2F5F0-2B94-4683-9C6B-E140B241CCA7}" name="IK"/>
     <tableColumn id="2" xr3:uid="{0E2C144F-E0D8-487B-8E5B-D31B9A1EBEBC}" name="Know How To" dataDxfId="2"/>
@@ -772,6 +790,19 @@
     <tableColumn id="4" xr3:uid="{A0D29A76-3819-419E-966E-413BC6E41F1E}" name="Done" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9C8DD86C-1314-432C-A521-1EF5EC049F58}" name="Table9" displayName="Table9" ref="M23:P27" totalsRowShown="0">
+  <autoFilter ref="M23:P27" xr:uid="{2BAB17A5-9291-4488-9CCE-C1872EBF7738}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{75B01DFD-E78D-47F0-9346-EC3445F39F0B}" name="GUI"/>
+    <tableColumn id="2" xr3:uid="{9E9F882E-B03F-4D36-876D-EA0A90677E00}" name="Know How To"/>
+    <tableColumn id="3" xr3:uid="{B9AC19EF-38C5-4C1A-951B-EA7F7F6118AB}" name="Currently Doing"/>
+    <tableColumn id="4" xr3:uid="{9CB84F16-4B90-4363-8630-D49BA89B576E}" name="Done"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -841,8 +872,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C32:F37" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="C32:F37" xr:uid="{E6395B0B-D4F3-4B33-9CD9-EA7043E99373}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C32:F38" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="C32:F38" xr:uid="{E6395B0B-D4F3-4B33-9CD9-EA7043E99373}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E146A790-EE3F-4945-ADC7-D79F80BA39F3}" name="Player Controler"/>
     <tableColumn id="2" xr3:uid="{DA7DABBA-92FE-420A-9935-43B5A2113711}" name="Know How To"/>
@@ -1175,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,58 +1229,58 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M5" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="P5" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1258,13 +1289,13 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="M6" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1278,13 +1309,13 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="M7" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1292,19 +1323,19 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="4"/>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="M8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -1312,19 +1343,19 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="4"/>
@@ -1332,19 +1363,19 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1352,19 +1383,19 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1372,65 +1403,73 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
         <v>8</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>9</v>
-      </c>
-      <c r="P15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1438,19 +1477,19 @@
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="5"/>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1458,13 +1497,13 @@
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1478,19 +1517,19 @@
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="M19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1498,171 +1537,213 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
+      <c r="M20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>10</v>
+      <c r="M23" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
+      <c r="M25" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
+      <c r="M26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
+      <c r="M27" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="5"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="4"/>
@@ -1670,13 +1751,13 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1684,13 +1765,13 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="4"/>
@@ -1698,21 +1779,27 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="4"/>
@@ -1721,7 +1808,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="11">
+  <tableParts count="12">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1733,6 +1820,7 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD239D4-1627-4E3D-9C49-429F66591B94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F10E4D-94CF-462F-8044-8302F9C1DCF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -1207,7 +1207,7 @@
   <dimension ref="A3:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E18" sqref="E18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,9 +1413,9 @@
       <c r="C13" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -1500,8 +1500,8 @@
         <v>26</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="H18" t="s">
         <v>23</v>
       </c>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F10E4D-94CF-462F-8044-8302F9C1DCF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE05497-3086-4AF2-8C90-36F61844D102}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,12 +119,6 @@
     <t>Abilities</t>
   </si>
   <si>
-    <t>Machine Gun</t>
-  </si>
-  <si>
-    <t>Wrist Mounted Rocket Launcher</t>
-  </si>
-  <si>
     <t>Charge-Up bar</t>
   </si>
   <si>
@@ -245,9 +239,6 @@
     <t>Dynamic Weapon Crosshairs</t>
   </si>
   <si>
-    <t>Kill Markers</t>
-  </si>
-  <si>
     <t>Enemy Health Bar</t>
   </si>
   <si>
@@ -264,6 +255,15 @@
   </si>
   <si>
     <t>3D Interactable Item At Center</t>
+  </si>
+  <si>
+    <t>Kill Markers / Sound Effect</t>
+  </si>
+  <si>
+    <t>Wrist Mounted Machine Gun</t>
+  </si>
+  <si>
+    <t>Auto Turrent</t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,17 +1229,17 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N5" s="14" t="s">
         <v>7</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1295,7 +1295,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="M6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1315,7 +1315,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="M7" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1335,7 +1335,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="M8" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -1355,11 +1355,11 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -1375,7 +1375,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1395,9 +1395,9 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1443,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N15" t="s">
         <v>7</v>
@@ -1469,7 +1469,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1489,7 +1489,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="5"/>
       <c r="M17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1509,7 +1509,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="5"/>
       <c r="M18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1529,7 +1529,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="M19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -1549,7 +1549,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1569,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>7</v>
@@ -1581,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N23" t="s">
         <v>7</v>
@@ -1595,19 +1595,19 @@
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="M24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1615,19 +1615,19 @@
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="4"/>
@@ -1635,19 +1635,19 @@
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="4"/>
@@ -1655,33 +1655,33 @@
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="M27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="4"/>
+      <c r="O27" s="2"/>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -1723,13 +1723,13 @@
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="4"/>
@@ -1751,13 +1751,13 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1765,13 +1765,13 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="4"/>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="4"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE05497-3086-4AF2-8C90-36F61844D102}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA28FA71-33B4-4AED-AADC-55451BEC2320}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="79">
   <si>
     <t>Weapon Customization</t>
   </si>
@@ -264,13 +264,16 @@
   </si>
   <si>
     <t>Auto Turrent</t>
+  </si>
+  <si>
+    <t>Attack Modes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +291,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -472,6 +482,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,8 +832,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA27063-98E1-4A38-A276-048E4BC35033}" name="Table3" displayName="Table3" ref="C15:F20" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="C15:F20" xr:uid="{B4CD116A-2747-4A8E-A6BF-E83A62A6D458}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA27063-98E1-4A38-A276-048E4BC35033}" name="Table3" displayName="Table3" ref="C15:F21" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="C15:F21" xr:uid="{B4CD116A-2747-4A8E-A6BF-E83A62A6D458}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5B5B62A9-99CC-4525-AFF9-99358C5C682C}" name="Companion"/>
     <tableColumn id="2" xr3:uid="{53BB65E7-E356-42A4-B8B3-53BEE74EBC16}" name="Know How To"/>
@@ -1206,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,6 +1567,14 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>28</v>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F10E4D-94CF-462F-8044-8302F9C1DCF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB4781-0CDF-4AFD-81AC-93BD550047F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB4781-0CDF-4AFD-81AC-93BD550047F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1833B4F5-C301-426B-8844-CFB24677918F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>Weapon Customization</t>
   </si>
@@ -264,6 +264,21 @@
   </si>
   <si>
     <t>3D Interactable Item At Center</t>
+  </si>
+  <si>
+    <t>Improved Ragdol</t>
+  </si>
+  <si>
+    <t>Limb Based Damage</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Weapon Sway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapon Rotation When Crouching </t>
   </si>
 </sst>
 </file>
@@ -807,8 +822,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89F7538B-637F-4004-9059-C8B4F291C1B2}" name="Table2" displayName="Table2" ref="H5:K11" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="H5:K11" xr:uid="{2E969C31-CF40-4213-822E-48EC08209CD5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89F7538B-637F-4004-9059-C8B4F291C1B2}" name="Table2" displayName="Table2" ref="H5:K13" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="H5:K13" xr:uid="{2E969C31-CF40-4213-822E-48EC08209CD5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{56337532-7222-4E3B-802C-811CF85FD428}" name="AI"/>
     <tableColumn id="2" xr3:uid="{ED42D48F-A127-4AA2-889C-15544A312D61}" name="Know How To"/>
@@ -846,8 +861,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C9BD4CE-FC8A-45E1-84B9-71D290E32C9C}" name="Table5" displayName="Table5" ref="C23:F28" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="C23:F28" xr:uid="{75EF3998-AA5E-4595-96E7-80265861975F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C9BD4CE-FC8A-45E1-84B9-71D290E32C9C}" name="Table5" displayName="Table5" ref="C23:F29" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="C23:F29" xr:uid="{75EF3998-AA5E-4595-96E7-80265861975F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{60C3BE13-C8E6-4644-843B-181CF132C1BA}" name="Abilities"/>
     <tableColumn id="2" xr3:uid="{3F4851D4-8411-4094-8564-3D5DF15C6B3F}" name="Know How To"/>
@@ -872,8 +887,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C32:F38" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="C32:F38" xr:uid="{E6395B0B-D4F3-4B33-9CD9-EA7043E99373}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C32:F40" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="C32:F40" xr:uid="{E6395B0B-D4F3-4B33-9CD9-EA7043E99373}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E146A790-EE3F-4945-ADC7-D79F80BA39F3}" name="Player Controler"/>
     <tableColumn id="2" xr3:uid="{DA7DABBA-92FE-420A-9935-43B5A2113711}" name="Know How To"/>
@@ -1204,27 +1219,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
-  <dimension ref="A3:P38"/>
+  <dimension ref="A3:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1327,7 +1342,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="2"/>
       <c r="H8" t="s">
         <v>13</v>
       </c>
@@ -1408,6 +1423,12 @@
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -1416,6 +1437,12 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -1688,6 +1715,12 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="H29" t="s">
         <v>49</v>
       </c>
@@ -1804,6 +1837,22 @@
       <c r="I38" s="2"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1833B4F5-C301-426B-8844-CFB24677918F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E7B3E-771E-4914-AAC8-688866648792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -1222,7 +1222,7 @@
   <dimension ref="A3:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,8 +1381,8 @@
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="H10" t="s">
         <v>15</v>
       </c>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E7B3E-771E-4914-AAC8-688866648792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4899AD28-DE70-4EA0-94B5-84ACEF62942F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,20 +473,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,7 +1222,7 @@
   <dimension ref="A3:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1329,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="7" t="s">
         <v>53</v>
       </c>
       <c r="N7" s="3"/>
@@ -1352,7 +1352,7 @@
       <c r="M8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="11"/>
       <c r="P8" s="12"/>
     </row>
@@ -1412,7 +1412,7 @@
       <c r="M11" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="2"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="5"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -1779,7 +1779,7 @@
         <v>45</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>47</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4899AD28-DE70-4EA0-94B5-84ACEF62942F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA8BE36-B0EC-40FF-A4EB-019BA567FE2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>Weapon Customization</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t xml:space="preserve">Weapon Rotation When Crouching </t>
+  </si>
+  <si>
+    <t>Save Data</t>
+  </si>
+  <si>
+    <t>Level/Prestige/Exp</t>
+  </si>
+  <si>
+    <t>Save Chosen Perks</t>
+  </si>
+  <si>
+    <t>Save All Perks</t>
   </si>
 </sst>
 </file>
@@ -469,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -487,6 +499,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,7 +831,20 @@
     <tableColumn id="3" xr3:uid="{B9AC19EF-38C5-4C1A-951B-EA7F7F6118AB}" name="Currently Doing"/>
     <tableColumn id="4" xr3:uid="{9CB84F16-4B90-4363-8630-D49BA89B576E}" name="Done"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410E2397-983B-4FF5-98D5-227BC0F4058E}" name="Table13" displayName="Table13" ref="M32:P35" totalsRowShown="0">
+  <autoFilter ref="M32:P35" xr:uid="{9BD84E6D-E7C8-4FEC-8E53-7EFC6AE2A9BF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5C749035-0C6C-4445-9F55-1AB9731FEC50}" name="Save Data"/>
+    <tableColumn id="2" xr3:uid="{FA917AB4-E289-423F-9D58-6A4DD32AEA20}" name="Know How To"/>
+    <tableColumn id="3" xr3:uid="{1744653C-2C8A-45DE-BE2E-EE99F1909174}" name="Currently Doing"/>
+    <tableColumn id="4" xr3:uid="{C513141B-DFA7-4711-ADA9-4315AE2B30FD}" name="Done"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1221,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1266,7 @@
     <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1753,8 +1780,20 @@
       <c r="K32" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N32" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>50</v>
       </c>
@@ -1767,8 +1806,14 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>40</v>
       </c>
@@ -1781,8 +1826,14 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -1795,8 +1846,14 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="18"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -1810,7 +1867,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>66</v>
       </c>
@@ -1824,7 +1881,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -1838,7 +1895,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>81</v>
       </c>
@@ -1846,7 +1903,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>82</v>
       </c>
@@ -1857,7 +1914,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="12">
+  <tableParts count="13">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1870,6 +1927,7 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA8BE36-B0EC-40FF-A4EB-019BA567FE2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D45E67-5E7E-4026-9D82-B90E948B612A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>Shooting</t>
   </si>
   <si>
-    <t>Death</t>
-  </si>
-  <si>
     <t>Multiple Targets</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>3D Interactable Item At Center</t>
   </si>
   <si>
-    <t>Improved Ragdol</t>
-  </si>
-  <si>
     <t>Limb Based Damage</t>
   </si>
   <si>
@@ -291,6 +285,12 @@
   </si>
   <si>
     <t>Save All Perks</t>
+  </si>
+  <si>
+    <t>Death/Ragdol</t>
+  </si>
+  <si>
+    <t>Animation</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,17 +1271,17 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" s="14" t="s">
         <v>7</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1337,7 +1337,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="M6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1357,7 +1357,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="M7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1377,7 +1377,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="M8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="11"/>
@@ -1391,13 +1391,13 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="4"/>
@@ -1411,13 +1411,13 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1431,13 +1431,13 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="4"/>
@@ -1451,7 +1451,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1459,13 +1459,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="4"/>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
@@ -1485,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>7</v>
@@ -1497,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N15" t="s">
         <v>7</v>
@@ -1511,19 +1511,19 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1531,19 +1531,19 @@
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="5"/>
       <c r="M17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1551,19 +1551,19 @@
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="5"/>
       <c r="M18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1571,19 +1571,19 @@
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="M19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1591,19 +1591,19 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
@@ -1623,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>7</v>
@@ -1635,7 +1635,7 @@
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N23" t="s">
         <v>7</v>
@@ -1649,19 +1649,19 @@
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="M24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1669,19 +1669,19 @@
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="4"/>
@@ -1689,19 +1689,19 @@
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="4"/>
@@ -1709,19 +1709,19 @@
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="M27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="4"/>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1743,13 +1743,13 @@
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -1769,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>7</v>
@@ -1781,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N32" t="s">
         <v>7</v>
@@ -1795,19 +1795,19 @@
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="M33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
@@ -1815,19 +1815,19 @@
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="4"/>
       <c r="M34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -1835,19 +1835,19 @@
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
       <c r="M35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="17"/>
@@ -1855,27 +1855,27 @@
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="4"/>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D45E67-5E7E-4026-9D82-B90E948B612A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C292A3-3754-4419-944F-E19063344EBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>Weapon Customization</t>
   </si>
@@ -191,18 +191,6 @@
     <t>Dismantle Loot</t>
   </si>
   <si>
-    <t>Improve Droping Physics</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Finished With Bugs</t>
-  </si>
-  <si>
-    <t>Finished</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -266,9 +254,6 @@
     <t>Limb Based Damage</t>
   </si>
   <si>
-    <t>Animations</t>
-  </si>
-  <si>
     <t>Weapon Sway</t>
   </si>
   <si>
@@ -291,6 +276,24 @@
   </si>
   <si>
     <t>Animation</t>
+  </si>
+  <si>
+    <t>Remake Inventory</t>
+  </si>
+  <si>
+    <t>GUI / UI</t>
+  </si>
+  <si>
+    <t>Improve Droping Effect</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Bugs / Kinda</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -814,19 +817,19 @@
   <autoFilter ref="M15:P20" xr:uid="{8E899151-B673-4134-A666-98AC07542539}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{49A2F5F0-2B94-4683-9C6B-E140B241CCA7}" name="IK"/>
-    <tableColumn id="2" xr3:uid="{0E2C144F-E0D8-487B-8E5B-D31B9A1EBEBC}" name="Know How To" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0E2C144F-E0D8-487B-8E5B-D31B9A1EBEBC}" name="Know How To" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{BE2B053C-9DD5-444D-A092-AE16313891AE}" name="Currently Doing" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A0D29A76-3819-419E-966E-413BC6E41F1E}" name="Done" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{A0D29A76-3819-419E-966E-413BC6E41F1E}" name="Done" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9C8DD86C-1314-432C-A521-1EF5EC049F58}" name="Table9" displayName="Table9" ref="M23:P27" totalsRowShown="0">
-  <autoFilter ref="M23:P27" xr:uid="{2BAB17A5-9291-4488-9CCE-C1872EBF7738}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9C8DD86C-1314-432C-A521-1EF5EC049F58}" name="Table9" displayName="Table9" ref="M23:P28" totalsRowShown="0">
+  <autoFilter ref="M23:P28" xr:uid="{2BAB17A5-9291-4488-9CCE-C1872EBF7738}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{75B01DFD-E78D-47F0-9346-EC3445F39F0B}" name="GUI"/>
+    <tableColumn id="1" xr3:uid="{75B01DFD-E78D-47F0-9346-EC3445F39F0B}" name="GUI / UI"/>
     <tableColumn id="2" xr3:uid="{9E9F882E-B03F-4D36-876D-EA0A90677E00}" name="Know How To"/>
     <tableColumn id="3" xr3:uid="{B9AC19EF-38C5-4C1A-951B-EA7F7F6118AB}" name="Currently Doing"/>
     <tableColumn id="4" xr3:uid="{9CB84F16-4B90-4363-8630-D49BA89B576E}" name="Done"/>
@@ -888,8 +891,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C9BD4CE-FC8A-45E1-84B9-71D290E32C9C}" name="Table5" displayName="Table5" ref="C23:F29" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="C23:F29" xr:uid="{75EF3998-AA5E-4595-96E7-80265861975F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C9BD4CE-FC8A-45E1-84B9-71D290E32C9C}" name="Table5" displayName="Table5" ref="C23:F28" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="C23:F28" xr:uid="{75EF3998-AA5E-4595-96E7-80265861975F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{60C3BE13-C8E6-4644-843B-181CF132C1BA}" name="Abilities"/>
     <tableColumn id="2" xr3:uid="{3F4851D4-8411-4094-8564-3D5DF15C6B3F}" name="Know How To"/>
@@ -914,8 +917,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C32:F40" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="C32:F40" xr:uid="{E6395B0B-D4F3-4B33-9CD9-EA7043E99373}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C31:F39" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="C31:F39" xr:uid="{E6395B0B-D4F3-4B33-9CD9-EA7043E99373}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E146A790-EE3F-4945-ADC7-D79F80BA39F3}" name="Player Controler"/>
     <tableColumn id="2" xr3:uid="{DA7DABBA-92FE-420A-9935-43B5A2113711}" name="Know How To"/>
@@ -1246,15 +1249,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
-  <dimension ref="A3:P40"/>
+  <dimension ref="A3:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
@@ -1271,17 +1274,17 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1335,7 +1338,7 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="4"/>
       <c r="M6" s="7" t="s">
         <v>51</v>
       </c>
@@ -1365,7 +1368,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1374,10 +1377,10 @@
         <v>13</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="4"/>
       <c r="M8" s="10" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="11"/>
@@ -1391,17 +1394,17 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -1417,7 +1420,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1437,11 +1440,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -1451,7 +1454,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1459,16 +1462,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1497,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N15" t="s">
         <v>7</v>
@@ -1523,9 +1526,9 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="M16" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="N16" s="5"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
@@ -1543,9 +1546,9 @@
       <c r="J17" s="2"/>
       <c r="K17" s="5"/>
       <c r="M17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="N17" s="5"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
@@ -1563,9 +1566,9 @@
       <c r="J18" s="2"/>
       <c r="K18" s="5"/>
       <c r="M18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="N18" s="5"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
@@ -1583,15 +1586,15 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="M19" t="s">
-        <v>68</v>
-      </c>
-      <c r="N19" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="N19" s="5"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -1603,9 +1606,9 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="M20" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="N20" s="5"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
@@ -1635,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="N23" t="s">
         <v>7</v>
@@ -1661,7 +1664,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1681,7 +1684,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="M25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="4"/>
@@ -1701,7 +1704,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="M26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="4"/>
@@ -1721,7 +1724,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="M27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="4"/>
@@ -1740,14 +1743,14 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="4"/>
+      <c r="M28" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
       <c r="H29" t="s">
         <v>48</v>
       </c>
@@ -1755,19 +1758,27 @@
       <c r="J29" s="2"/>
       <c r="K29" s="4"/>
     </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
       <c r="H32" s="1" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N32" t="s">
         <v>7</v>
@@ -1795,9 +1806,9 @@
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="H33" t="s">
@@ -1807,7 +1818,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="M33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
@@ -1815,7 +1826,7 @@
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1827,7 +1838,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="4"/>
       <c r="M34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -1835,9 +1846,9 @@
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="H35" t="s">
@@ -1847,7 +1858,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
       <c r="M35" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="17"/>
@@ -1855,9 +1866,9 @@
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="H36" t="s">
@@ -1869,7 +1880,7 @@
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1885,11 +1896,11 @@
       <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="4"/>
@@ -1897,19 +1908,11 @@
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D45E67-5E7E-4026-9D82-B90E948B612A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE02A6F-C1E2-4471-86A9-2D5B880D18FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>Weapon Customization</t>
   </si>
@@ -291,6 +291,27 @@
   </si>
   <si>
     <t>Animation</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>3 Unsuppressed Gunshots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Suppressed Gunshots </t>
+  </si>
+  <si>
+    <t>3 - 5 Footsteps for Grass, Stone, Water</t>
+  </si>
+  <si>
+    <t>3 Effects for Each Reload Phase</t>
+  </si>
+  <si>
+    <t>2 - 3 Explosions</t>
+  </si>
+  <si>
+    <t>2 -3 Bullet Hit Effects for Metal, Wood, Flesh, Stone, Rubber</t>
   </si>
 </sst>
 </file>
@@ -505,7 +526,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -784,7 +829,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7D89E84-46C2-4809-B7E2-12FEF9EC639E}" name="Table1" displayName="Table1" ref="C5:F13" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7D89E84-46C2-4809-B7E2-12FEF9EC639E}" name="Table1" displayName="Table1" ref="C5:F13" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="C5:F13" xr:uid="{047B73C0-D5C4-42ED-ACEC-1158B2377E0D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BF559A51-623C-4BD0-9BD4-F0F02B5BFDE2}" name="Weapon Customization"/>
@@ -797,7 +842,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6C93E040-1EB4-4D09-8018-0F69FC13F4AA}" name="Table11" displayName="Table11" ref="M5:P11" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6C93E040-1EB4-4D09-8018-0F69FC13F4AA}" name="Table11" displayName="Table11" ref="M5:P11" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="M5:P11" xr:uid="{0E6C23D4-EDC3-4E5C-B637-66C1A94FEF5A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{294C2FBC-108A-4A79-9CFA-291618427F38}" name="Looting"/>
@@ -814,9 +859,9 @@
   <autoFilter ref="M15:P20" xr:uid="{8E899151-B673-4134-A666-98AC07542539}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{49A2F5F0-2B94-4683-9C6B-E140B241CCA7}" name="IK"/>
-    <tableColumn id="2" xr3:uid="{0E2C144F-E0D8-487B-8E5B-D31B9A1EBEBC}" name="Know How To" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BE2B053C-9DD5-444D-A092-AE16313891AE}" name="Currently Doing" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A0D29A76-3819-419E-966E-413BC6E41F1E}" name="Done" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0E2C144F-E0D8-487B-8E5B-D31B9A1EBEBC}" name="Know How To" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{BE2B053C-9DD5-444D-A092-AE16313891AE}" name="Currently Doing" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A0D29A76-3819-419E-966E-413BC6E41F1E}" name="Done" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -848,8 +893,21 @@
 </table>
 </file>
 
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{369E2F9D-B4F6-4BDA-9D5D-4E0A38CDF31B}" name="Table14" displayName="Table14" ref="C42:F48" totalsRowShown="0">
+  <autoFilter ref="C42:F48" xr:uid="{0C7A7F9E-D632-4DA4-9ACE-8476A4C1CAC4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{285F1399-435E-4187-AD8F-0B428CB2B3FE}" name="Sound"/>
+    <tableColumn id="2" xr3:uid="{FF0510DF-66CE-4761-AF89-D23335B1BC02}" name="Know How To" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FD5788A5-D91C-4624-9963-8D3D68AA37C5}" name="Currently Doing" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{86C57F40-1606-46F7-9869-E8BD6CBDBA28}" name="Done" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89F7538B-637F-4004-9059-C8B4F291C1B2}" name="Table2" displayName="Table2" ref="H5:K13" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89F7538B-637F-4004-9059-C8B4F291C1B2}" name="Table2" displayName="Table2" ref="H5:K13" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="H5:K13" xr:uid="{2E969C31-CF40-4213-822E-48EC08209CD5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{56337532-7222-4E3B-802C-811CF85FD428}" name="AI"/>
@@ -862,7 +920,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA27063-98E1-4A38-A276-048E4BC35033}" name="Table3" displayName="Table3" ref="C15:F20" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA27063-98E1-4A38-A276-048E4BC35033}" name="Table3" displayName="Table3" ref="C15:F20" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="C15:F20" xr:uid="{B4CD116A-2747-4A8E-A6BF-E83A62A6D458}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5B5B62A9-99CC-4525-AFF9-99358C5C682C}" name="Companion"/>
@@ -875,7 +933,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1A6CEFD-1138-4E38-9EF7-FB5D16E2BF60}" name="Table4" displayName="Table4" ref="H15:K20" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1A6CEFD-1138-4E38-9EF7-FB5D16E2BF60}" name="Table4" displayName="Table4" ref="H15:K20" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="H15:K20" xr:uid="{C74D4457-CD35-495A-85B5-EE93E3A504CB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7CD12DC9-5083-4E58-B60F-131DE37FC30A}" name="Vehicle"/>
@@ -888,20 +946,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C9BD4CE-FC8A-45E1-84B9-71D290E32C9C}" name="Table5" displayName="Table5" ref="C23:F29" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C9BD4CE-FC8A-45E1-84B9-71D290E32C9C}" name="Table5" displayName="Table5" ref="C23:F29" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="C23:F29" xr:uid="{75EF3998-AA5E-4595-96E7-80265861975F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{60C3BE13-C8E6-4644-843B-181CF132C1BA}" name="Abilities"/>
     <tableColumn id="2" xr3:uid="{3F4851D4-8411-4094-8564-3D5DF15C6B3F}" name="Know How To"/>
-    <tableColumn id="3" xr3:uid="{5603E878-CCE1-4102-A0F7-BAC7AE4E8ED4}" name="Currently Doing" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{1A9C1F0A-8F49-4023-B665-F63FBA1EE78E}" name="Done" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{5603E878-CCE1-4102-A0F7-BAC7AE4E8ED4}" name="Currently Doing" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{1A9C1F0A-8F49-4023-B665-F63FBA1EE78E}" name="Done" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4C4740F1-8136-4F93-9A9A-833316F07E96}" name="Table7" displayName="Table7" ref="H23:K29" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4C4740F1-8136-4F93-9A9A-833316F07E96}" name="Table7" displayName="Table7" ref="H23:K29" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="H23:K29" xr:uid="{DBC3B708-E215-4315-ABE2-168F659D0273}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2A9AC2AA-9180-40B9-A64B-95D7D5948A82}" name="Misc"/>
@@ -914,7 +972,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C32:F40" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43838F18-A8CD-46A0-BAB8-0D3AAF76D6F4}" name="Table8" displayName="Table8" ref="C32:F40" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="C32:F40" xr:uid="{E6395B0B-D4F3-4B33-9CD9-EA7043E99373}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E146A790-EE3F-4945-ADC7-D79F80BA39F3}" name="Player Controler"/>
@@ -927,20 +985,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85736504-C8B5-4E95-A007-6F3F5D14EF50}" name="Table6" displayName="Table6" ref="H32:K38" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85736504-C8B5-4E95-A007-6F3F5D14EF50}" name="Table6" displayName="Table6" ref="H32:K38" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="H32:K38" xr:uid="{2EBA55FA-37CE-425B-8D42-08A2FAC0F309}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0718A3E8-BAEE-477D-86C4-F6909911255A}" name="Weapons"/>
     <tableColumn id="2" xr3:uid="{F3199CEB-AC32-4C97-B72C-267A5C13FDC1}" name="Know How To"/>
     <tableColumn id="3" xr3:uid="{7E131167-8EFC-47F6-95C1-A4E267D19F75}" name="Currently Doing"/>
-    <tableColumn id="4" xr3:uid="{72F1976F-FE14-40F0-B21E-DBF5D813960D}" name="Done" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{72F1976F-FE14-40F0-B21E-DBF5D813960D}" name="Done" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C9269E8A-CEE7-49FB-9093-763EF2F43693}" name="Table10" displayName="Table10" ref="A3:A6" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C9269E8A-CEE7-49FB-9093-763EF2F43693}" name="Table10" displayName="Table10" ref="A3:A6" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A3:A6" xr:uid="{4D52DC02-5304-40D3-98EE-FBDA93B4C8A2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{8BE3EF3A-1169-48A1-816D-933E40F72399}" name="Key"/>
@@ -1246,19 +1304,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
-  <dimension ref="A3:P40"/>
+  <dimension ref="A3:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
@@ -1911,10 +1969,72 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="13">
+  <tableParts count="14">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1928,6 +2048,7 @@
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE02A6F-C1E2-4471-86A9-2D5B880D18FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455580F3-5E57-412C-BD9D-50CB22D26058}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>Weapon Customization</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Dismantle Loot</t>
   </si>
   <si>
-    <t>Improve Droping Physics</t>
-  </si>
-  <si>
     <t>Not Started</t>
   </si>
   <si>
@@ -312,6 +309,18 @@
   </si>
   <si>
     <t>2 -3 Bullet Hit Effects for Metal, Wood, Flesh, Stone, Rubber</t>
+  </si>
+  <si>
+    <t>Improve Droping Effect</t>
+  </si>
+  <si>
+    <t>Camera Recoil</t>
+  </si>
+  <si>
+    <t>Damage Drop-off</t>
+  </si>
+  <si>
+    <t>ReOrganize GunController</t>
   </si>
 </sst>
 </file>
@@ -985,8 +994,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85736504-C8B5-4E95-A007-6F3F5D14EF50}" name="Table6" displayName="Table6" ref="H32:K38" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="H32:K38" xr:uid="{2EBA55FA-37CE-425B-8D42-08A2FAC0F309}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{85736504-C8B5-4E95-A007-6F3F5D14EF50}" name="Table6" displayName="Table6" ref="H32:K41" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="H32:K41" xr:uid="{2EBA55FA-37CE-425B-8D42-08A2FAC0F309}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0718A3E8-BAEE-477D-86C4-F6909911255A}" name="Weapons"/>
     <tableColumn id="2" xr3:uid="{F3199CEB-AC32-4C97-B72C-267A5C13FDC1}" name="Know How To"/>
@@ -1306,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,17 +1338,17 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1380,7 +1389,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1423,7 +1432,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1432,10 +1441,10 @@
         <v>13</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="4"/>
       <c r="M8" s="10" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="11"/>
@@ -1449,17 +1458,17 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -1475,7 +1484,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1495,7 +1504,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="4"/>
@@ -1509,24 +1518,24 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1555,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N15" t="s">
         <v>7</v>
@@ -1581,7 +1590,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="M16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1601,7 +1610,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="5"/>
       <c r="M17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1621,7 +1630,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="5"/>
       <c r="M18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1641,7 +1650,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="M19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1649,7 +1658,7 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -1661,7 +1670,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="M20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1693,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N23" t="s">
         <v>7</v>
@@ -1719,7 +1728,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1739,7 +1748,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="M25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="4"/>
@@ -1759,7 +1768,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="M26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="4"/>
@@ -1779,7 +1788,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="M27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="4"/>
@@ -1801,7 +1810,7 @@
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
@@ -1839,7 +1848,7 @@
         <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N32" t="s">
         <v>7</v>
@@ -1865,7 +1874,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="M33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
@@ -1875,7 +1884,7 @@
       <c r="C34" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="H34" t="s">
@@ -1885,7 +1894,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="4"/>
       <c r="M34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -1905,7 +1914,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
       <c r="M35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="17"/>
@@ -1927,7 +1936,7 @@
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1941,13 +1950,13 @@
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="4"/>
@@ -1955,23 +1964,41 @@
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
+      <c r="H40" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1985,7 +2012,7 @@
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
@@ -1993,7 +2020,7 @@
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="4"/>
@@ -2001,7 +2028,7 @@
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="4"/>
@@ -2009,7 +2036,7 @@
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
@@ -2017,7 +2044,7 @@
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
@@ -2025,7 +2052,7 @@
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455580F3-5E57-412C-BD9D-50CB22D26058}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA471994-21F8-44F7-AE93-653A04231CCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1330,7 @@
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
@@ -1994,7 +1994,9 @@
       <c r="H41" t="s">
         <v>96</v>
       </c>
-      <c r="K41" s="4"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42" t="s">

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA471994-21F8-44F7-AE93-653A04231CCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C333A4CF-8233-4EAB-932F-4BF331A7E166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
   <si>
     <t>Weapon Customization</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Not Started</t>
   </si>
   <si>
-    <t>Finished With Bugs</t>
-  </si>
-  <si>
     <t>Finished</t>
   </si>
   <si>
@@ -321,6 +318,15 @@
   </si>
   <si>
     <t>ReOrganize GunController</t>
+  </si>
+  <si>
+    <t>Nearly Finished</t>
+  </si>
+  <si>
+    <t>PART</t>
+  </si>
+  <si>
+    <t>BUG</t>
   </si>
 </sst>
 </file>
@@ -1315,14 +1321,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38:K38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -1338,7 +1344,7 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1348,7 +1354,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1389,7 +1395,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1421,18 +1427,20 @@
         <v>12</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="M7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1444,7 +1452,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
       <c r="M8" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="11"/>
@@ -1455,16 +1463,18 @@
         <v>3</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1484,7 +1494,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1504,10 +1514,10 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="4"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1518,21 +1528,21 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="H12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1564,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15" t="s">
         <v>7</v>
@@ -1590,7 +1600,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="M16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1608,9 +1618,11 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="M17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1628,9 +1640,9 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="2"/>
       <c r="M18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1650,7 +1662,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="M19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1658,7 +1670,7 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -1670,7 +1682,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="M20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1702,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N23" t="s">
         <v>7</v>
@@ -1728,7 +1740,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="M24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1748,7 +1760,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="M25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="4"/>
@@ -1768,7 +1780,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="M26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="4"/>
@@ -1788,7 +1800,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="M27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="4"/>
@@ -1810,7 +1822,7 @@
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
@@ -1848,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N32" t="s">
         <v>7</v>
@@ -1874,7 +1886,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="M33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
@@ -1894,7 +1906,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="4"/>
       <c r="M34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -1914,11 +1926,13 @@
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
       <c r="M35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="17"/>
-      <c r="P35" s="18"/>
+      <c r="P35" s="18" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
@@ -1932,11 +1946,11 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="5"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1950,13 +1964,13 @@
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="4"/>
@@ -1964,13 +1978,13 @@
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="4"/>
@@ -1978,13 +1992,13 @@
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="H40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="4"/>
@@ -1992,7 +2006,7 @@
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2000,7 +2014,7 @@
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -2014,23 +2028,27 @@
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="4"/>
@@ -2038,7 +2056,7 @@
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
@@ -2046,7 +2064,7 @@
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
@@ -2054,7 +2072,7 @@
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C333A4CF-8233-4EAB-932F-4BF331A7E166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5084B008-B6E1-486A-ADF1-AC2A8203CD16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2059,7 @@
         <v>89</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.25">
@@ -2067,8 +2067,10 @@
         <v>90</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C48" t="s">

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Status-Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5084B008-B6E1-486A-ADF1-AC2A8203CD16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EA9E40-9A1A-4239-8C41-98A7B72C56B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EACB9-0416-497A-B565-7DEA2F20F35F}">
   <dimension ref="A3:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="5"/>
       <c r="M8" s="10" t="s">
         <v>92</v>
       </c>
@@ -1470,9 +1470,9 @@
       <c r="H9" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="5"/>
       <c r="M9" t="s">
         <v>57</v>
       </c>
@@ -1491,8 +1491,8 @@
         <v>14</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="M10" t="s">
         <v>58</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -2051,8 +2051,8 @@
         <v>88</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C46" t="s">

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EA9E40-9A1A-4239-8C41-98A7B72C56B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7509FE1-384B-485B-95BC-53DDD692DA73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67D95150-2B94-4068-B3D8-717E9D13E466}"/>
   </bookViews>
@@ -260,9 +260,6 @@
     <t>Limb Based Damage</t>
   </si>
   <si>
-    <t>Animations</t>
-  </si>
-  <si>
     <t>Weapon Sway</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>BUG</t>
+  </si>
+  <si>
+    <t>Plasma Sword</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1322,7 @@
   <dimension ref="A3:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1435,7 +1435,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1450,9 +1450,9 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="2"/>
       <c r="M8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="11"/>
@@ -1465,14 +1465,14 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="2"/>
       <c r="M9" t="s">
         <v>57</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1611,7 +1611,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="4"/>
       <c r="H17" t="s">
         <v>21</v>
@@ -1619,7 +1619,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M17" t="s">
         <v>61</v>
@@ -1742,7 +1742,7 @@
       <c r="M24" t="s">
         <v>67</v>
       </c>
-      <c r="N24" s="4"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
@@ -1777,7 +1777,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="4"/>
       <c r="M26" t="s">
         <v>69</v>
@@ -1803,7 +1803,7 @@
         <v>70</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="4"/>
+      <c r="O27" s="2"/>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
@@ -1860,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N32" t="s">
         <v>7</v>
@@ -1886,7 +1886,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="M33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
@@ -1906,7 +1906,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="4"/>
       <c r="M34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -1926,12 +1926,12 @@
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
       <c r="M35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="17"/>
       <c r="P35" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.25">
@@ -1978,13 +1978,13 @@
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="H39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="4"/>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="H40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="4"/>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
